--- a/bulk-match-template-bilingual-chinese.xlsx
+++ b/bulk-match-template-bilingual-chinese.xlsx
@@ -441,13 +441,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>张伟</v>
+        <v>HVGN0BW0</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>李娜</v>
+        <v>KGLE38K4</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -467,16 +467,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>王强</v>
+        <v>MJST45X9</v>
       </c>
       <c r="B3" t="str">
-        <v>刘敏</v>
+        <v>SWQR78Z2</v>
       </c>
       <c r="C3" t="str">
-        <v>陈军</v>
+        <v>TBPL91M5</v>
       </c>
       <c r="D3" t="str">
-        <v>赵静</v>
+        <v>LCKM33Y8</v>
       </c>
       <c r="E3" t="str">
         <v>11</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>杨涛</v>
+        <v>DLVW67N4</v>
       </c>
       <c r="B4" t="str">
         <v/>
       </c>
       <c r="C4" t="str">
-        <v>孙丽</v>
+        <v>EDRX29H6</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -514,21 +514,21 @@
         <v>2025-01-16</v>
       </c>
       <c r="H4" t="str">
-        <v>男</v>
+        <v>M</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>马飞</v>
+        <v>AWJF82P1</v>
       </c>
       <c r="B5" t="str">
-        <v>周芳</v>
+        <v>JLMN56Q3</v>
       </c>
       <c r="C5" t="str">
-        <v>吴斌</v>
+        <v>RZQW74T7</v>
       </c>
       <c r="D5" t="str">
-        <v>郑红</v>
+        <v>MKHY93V0</v>
       </c>
       <c r="E5" t="str">
         <v>11</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>林浩</v>
+        <v>CTBR48K5</v>
       </c>
       <c r="B6" t="str">
         <v/>
       </c>
       <c r="C6" t="str">
-        <v>黄艳</v>
+        <v>ARLZ61F9</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -566,7 +566,7 @@
         <v>2025-01-17</v>
       </c>
       <c r="H6" t="str">
-        <v>女</v>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -598,32 +598,32 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1. 使用已注册的用户名或护照码填写球员姓名</v>
+        <v>格式指南：</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2. 单打比赛时，第二个球员栏位留空</v>
+        <v>• 使用选手护照代码（例如：HVGN0BW0, KGLE38K4）</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3. 比分格式：11、9、13等</v>
+        <v>• 单打比赛请将第一队选手二和第二队选手二留空</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4. 日期格式：YYYY-MM-DD（例：2025-01-15）</v>
+        <v>• 使用如下分数格式：11, 7, 15, 13（游戏比分）</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5. 性别覆盖：留空自动检测，使用 男/女 进行覆盖</v>
+        <v>• 日期格式：YYYY-MM-DD（例如：2025-01-15）</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6. 上传时保存为 .xlsx 文件</v>
+        <v>• 性别覆盖：男或女（可选，用于跨性别比赛）</v>
       </c>
     </row>
     <row r="9">
@@ -633,47 +633,47 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>列详情：</v>
+        <v>示例：</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>- 第一队选手一：必填 - 第一队的第一位球员</v>
+        <v>单打：HVGN0BW0 对 KGLE38K4，比分 11-7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>- 第一队选手二：选填 - 双打的第二位球员（单打留空）</v>
+        <v>双打：MJST45X9/SWQR78Z2 对 TBPL91M5/LCKM33Y8，比分 11-9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>- 第二队选手一：必填 - 第二队的第一位球员</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>- 第二队选手二：选填 - 双打的第二位球员（单打留空）</v>
+        <v>验证将检查：</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>- 第一队得分：必填 - 第一队的最终得分</v>
+        <v>• 所有护照代码在系统中存在</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>- 第二队得分：必填 - 第二队的最终得分</v>
+        <v>• 有效的分数格式</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>- 比赛日期：必填 - YYYY-MM-DD 格式的比赛日期</v>
+        <v>• 无重复比赛</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>- 性别覆盖：选填 - 男代表全男性比赛，女代表全女性比赛</v>
+        <v>• 正确的日期格式</v>
       </c>
     </row>
   </sheetData>

--- a/bulk-match-template-bilingual-chinese.xlsx
+++ b/bulk-match-template-bilingual-chinese.xlsx
@@ -403,10 +403,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -415,16 +415,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Team_1_Player_1 / 第一队选手一</v>
+        <v>Team_1_Player_1_Passport / 第一队选手一护照码</v>
       </c>
       <c r="B1" t="str">
-        <v>Team_1_Player_2 / 第一队选手二</v>
+        <v>Team_1_Player_2_Passport / 第一队选手二护照码</v>
       </c>
       <c r="C1" t="str">
-        <v>Team_2_Player_1 / 第二队选手一</v>
+        <v>Team_2_Player_1_Passport / 第二队选手一护照码</v>
       </c>
       <c r="D1" t="str">
-        <v>Team_2_Player_2 / 第二队选手二</v>
+        <v>Team_2_Player_2_Passport / 第二队选手二护照码</v>
       </c>
       <c r="E1" t="str">
         <v>Team_1_Score / 第一队得分</v>
@@ -578,7 +578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,12 +603,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>• 使用选手护照代码（例如：HVGN0BW0, KGLE38K4）</v>
+        <v>• 使用选手护照代码（例如：HVGN0BW0, KGLE38K4）- 不是姓名</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>• 单打比赛请将第一队选手二和第二队选手二留空</v>
+        <v>• 单打比赛请将第一队选手二护照码和第二队选手二护照码留空</v>
       </c>
     </row>
     <row r="6">
@@ -653,32 +653,57 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>验证将检查：</v>
+        <v>重要提示 - 仅使用护照代码：</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>• 所有护照代码在系统中存在</v>
+        <v>• 系统要求护照代码，不是选手姓名</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>• 有效的分数格式</v>
+        <v>• 每个护照代码为8个字符（字母和数字）</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>• 无重复比赛</v>
+        <v>• 从选手档案或管理面板查找护照代码</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>验证将检查：</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>• 所有护照代码在系统中存在</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>• 有效的分数格式</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>• 无重复比赛</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>• 正确的日期格式</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A23"/>
   </ignoredErrors>
 </worksheet>
 </file>